--- a/src/main/resources/excel/排课信息导入.xlsx
+++ b/src/main/resources/excel/排课信息导入.xlsx
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>达成度计算类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +43,10 @@
   </si>
   <si>
     <t>注意：数据从第三行开始读取不要出现空值、空行，学年学期格式：2014年至2015年第1长学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,16 +127,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,13 +420,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
@@ -434,33 +434,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
